--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BTaDLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/btadlp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200AECA-CCF8-DF4C-AB68-6083C7CAC4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="24920" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="BTaDLP" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -132,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -225,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,11 +256,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,7 +453,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -534,6 +553,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -569,6 +605,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,21 +797,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="14">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,44 +822,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -811,51 +867,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -893,7 +949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
         <v>32</v>
@@ -929,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1949</v>
       </c>
@@ -967,7 +1023,7 @@
         <v>254.511</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1950</v>
       </c>
@@ -1005,7 +1061,7 @@
         <v>291.44299999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1951</v>
       </c>
@@ -1043,7 +1099,7 @@
         <v>330.28500000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1952</v>
       </c>
@@ -1081,7 +1137,7 @@
         <v>356.16399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1953</v>
       </c>
@@ -1119,7 +1175,7 @@
         <v>396.21699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1954</v>
       </c>
@@ -1157,7 +1213,7 @@
         <v>424.16399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1955</v>
       </c>
@@ -1195,7 +1251,7 @@
         <v>496.74799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1956</v>
       </c>
@@ -1233,7 +1289,7 @@
         <v>546.28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1957</v>
       </c>
@@ -1271,7 +1327,7 @@
         <v>575.82000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1958</v>
       </c>
@@ -1309,7 +1365,7 @@
         <v>587.86300000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1959</v>
       </c>
@@ -1347,7 +1403,7 @@
         <v>646.88800000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1960</v>
       </c>
@@ -1385,7 +1441,7 @@
         <v>688.07500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1961</v>
       </c>
@@ -1423,7 +1479,7 @@
         <v>721.95</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1962</v>
       </c>
@@ -1461,7 +1517,7 @@
         <v>777.6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1963</v>
       </c>
@@ -1499,7 +1555,7 @@
         <v>832.61300000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1964</v>
       </c>
@@ -1537,7 +1593,7 @@
         <v>896.05899999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1965</v>
       </c>
@@ -1575,7 +1631,7 @@
         <v>953.78899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1966</v>
       </c>
@@ -1613,7 +1669,7 @@
         <v>1035.145</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1967</v>
       </c>
@@ -1651,7 +1707,7 @@
         <v>1099.2170000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1968</v>
       </c>
@@ -1689,7 +1745,7 @@
         <v>1202.8710000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1969</v>
       </c>
@@ -1727,7 +1783,7 @@
         <v>1313.8330000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1970</v>
       </c>
@@ -1765,7 +1821,7 @@
         <v>1392.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1971</v>
       </c>
@@ -1803,7 +1859,7 @@
         <v>1469.54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1972</v>
       </c>
@@ -1841,7 +1897,7 @@
         <v>1595.1610000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1973</v>
       </c>
@@ -1879,7 +1935,7 @@
         <v>1712.9090000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1974</v>
       </c>
@@ -1917,7 +1973,7 @@
         <v>1705.924</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1975</v>
       </c>
@@ -1955,7 +2011,7 @@
         <v>1747.0909999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1976</v>
       </c>
@@ -1993,7 +2049,7 @@
         <v>1855.2460000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1977</v>
       </c>
@@ -2031,7 +2087,7 @@
         <v>1948.3610000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1978</v>
       </c>
@@ -2069,7 +2125,7 @@
         <v>2017.922</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1979</v>
       </c>
@@ -2107,7 +2163,7 @@
         <v>2071.0990000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1980</v>
       </c>
@@ -2145,7 +2201,7 @@
         <v>2094.4490000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1981</v>
       </c>
@@ -2183,7 +2239,7 @@
         <v>2147.1030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1982</v>
       </c>
@@ -2221,7 +2277,7 @@
         <v>2086.4409999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1983</v>
       </c>
@@ -2259,7 +2315,7 @@
         <v>2150.9549999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1984</v>
       </c>
@@ -2297,7 +2353,7 @@
         <v>2285.7959999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1985</v>
       </c>
@@ -2335,7 +2391,7 @@
         <v>2323.9740000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1986</v>
       </c>
@@ -2373,7 +2429,7 @@
         <v>2368.7530000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1987</v>
       </c>
@@ -2411,7 +2467,7 @@
         <v>2457.2719999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1988</v>
       </c>
@@ -2449,7 +2505,7 @@
         <v>2578.0619999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1989</v>
       </c>
@@ -2487,7 +2543,7 @@
         <v>2755.6350000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1990</v>
       </c>
@@ -2525,7 +2581,7 @@
         <v>2837.0839999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1991</v>
       </c>
@@ -2563,7 +2619,7 @@
         <v>2886.06</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1992</v>
       </c>
@@ -2601,7 +2657,7 @@
         <v>2897.2069999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1993</v>
       </c>
@@ -2639,7 +2695,7 @@
         <v>3000.7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1994</v>
       </c>
@@ -2677,7 +2733,7 @@
         <v>3080.8879999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1995</v>
       </c>
@@ -2715,7 +2771,7 @@
         <v>3163.9630000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1996</v>
       </c>
@@ -2753,7 +2809,7 @@
         <v>3253.7649999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1997</v>
       </c>
@@ -2791,7 +2847,7 @@
         <v>3301.8490000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1998</v>
       </c>
@@ -2829,7 +2885,7 @@
         <v>3425.0970000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1999</v>
       </c>
@@ -2867,7 +2923,7 @@
         <v>3483.7159999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2000</v>
       </c>
@@ -2905,7 +2961,7 @@
         <v>3592.357</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2001</v>
       </c>
@@ -2943,7 +2999,7 @@
         <v>3557.107</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2002</v>
       </c>
@@ -2981,7 +3037,7 @@
         <v>3631.65</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2003</v>
       </c>
@@ -3019,7 +3075,7 @@
         <v>3662.029</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2004</v>
       </c>
@@ -3057,7 +3113,7 @@
         <v>3715.9490000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2005</v>
       </c>
@@ -3095,7 +3151,7 @@
         <v>3810.9839999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2006</v>
       </c>
@@ -3133,7 +3189,7 @@
         <v>3816.8449999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2007</v>
       </c>
@@ -3171,7 +3227,7 @@
         <v>3890.2310000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2008</v>
       </c>
@@ -3209,7 +3265,7 @@
         <v>3866.1610000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2009</v>
       </c>
@@ -3247,7 +3303,7 @@
         <v>3723.7330000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2010</v>
       </c>
@@ -3285,7 +3341,7 @@
         <v>3886.752</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2011</v>
       </c>
@@ -3323,7 +3379,7 @@
         <v>3882.6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2012</v>
       </c>
@@ -3361,7 +3417,7 @@
         <v>3832.306</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2013</v>
       </c>
@@ -3399,7 +3455,7 @@
         <v>3868.33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2014</v>
       </c>
@@ -3437,7 +3493,7 @@
         <v>3903.2739999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2015</v>
       </c>
@@ -3475,7 +3531,7 @@
         <v>3900.16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2016</v>
       </c>
@@ -3513,7 +3569,7 @@
         <v>3902.306</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2017</v>
       </c>
@@ -3551,7 +3607,7 @@
         <v>3864.47</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2018</v>
       </c>
@@ -3589,7 +3645,7 @@
         <v>4003.299</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2019</v>
       </c>
@@ -3634,22 +3690,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3660,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -3677,7 +3733,7 @@
         <v>6.6944071098814603E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -3694,7 +3750,7 @@
         <v>5.6301959775455837E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -3711,7 +3767,7 @@
         <v>6.69968403047973E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -3728,7 +3784,7 @@
         <v>6.1157289973365822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -3745,7 +3801,7 @@
         <v>6.9824806478379145E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -3762,7 +3818,7 @@
         <v>6.8991223394440859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -3779,7 +3835,7 @@
         <v>6.8135044422103247E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -3796,7 +3852,7 @@
         <v>7.4342197409809851E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -3813,7 +3869,7 @@
         <v>7.1973548372324628E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -3830,7 +3886,7 @@
         <v>6.8415000431776993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -3847,7 +3903,7 @@
         <v>6.6530543607796436E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -3864,7 +3920,7 @@
         <v>6.4533940396931652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -3881,7 +3937,7 @@
         <v>6.7531060123515632E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -3898,7 +3954,7 @@
         <v>6.5453036402503759E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -3915,7 +3971,7 @@
         <v>6.18602525829927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -3932,7 +3988,7 @@
         <v>6.2284686986993069E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -3949,7 +4005,7 @@
         <v>6.1476826137713443E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -3966,7 +4022,7 @@
         <v>5.8315084670271959E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -3983,7 +4039,7 @@
         <v>5.456342836151426E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -4000,12 +4056,12 @@
         <v>6.6105782903553054E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -4024,7 +4080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4034,13 +4090,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4153,7 +4209,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>31</v>
       </c>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/btadlp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\BTaDLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200AECA-CCF8-DF4C-AB68-6083C7CAC4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679011A-68B2-4B8A-9BFC-1C6A29282BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="24920" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1515" windowWidth="15990" windowHeight="14955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="BTaDLP" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,9 +85,6 @@
     <t>Transmission and Distribution Losses and Unaccounted for</t>
   </si>
   <si>
-    <t>Electricity Retail Sales, Total</t>
-  </si>
-  <si>
     <t>Electricity Direct Use</t>
   </si>
   <si>
@@ -97,15 +95,6 @@
   </si>
   <si>
     <t>Net Generation: Electric Power Sector</t>
-  </si>
-  <si>
-    <t>Next Update: October 26, 2016</t>
-  </si>
-  <si>
-    <t>Release Date: September 25, 2016</t>
-  </si>
-  <si>
-    <t>September 2016 Monthly Energy Review</t>
   </si>
   <si>
     <t>No meaningful trend since 2000, so we assume T&amp;D losses going forward are constant at the average value for this period.</t>
@@ -139,6 +128,18 @@
   </si>
   <si>
     <t>https://www.eia.gov/totalenergy/data/monthly/</t>
+  </si>
+  <si>
+    <t>May 2022 Monthly Energy Review</t>
+  </si>
+  <si>
+    <t>Release Date: May 25, 2022</t>
+  </si>
+  <si>
+    <t>Next Update: June 27, 2022</t>
+  </si>
+  <si>
+    <t>Electricity Sales to Ultimate Customers</t>
   </si>
 </sst>
 </file>
@@ -237,7 +238,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,17 +247,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -357,16 +356,16 @@
                   <c:v>6.2284686986993069E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1476826137713443E-2</c:v>
+                  <c:v>6.1478867955155558E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8315084670271959E-2</c:v>
+                  <c:v>5.8355059365000683E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.456342836151426E-2</c:v>
+                  <c:v>5.466273552094774E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.6105782903553054E-2</c:v>
+                  <c:v>5.3580150841140213E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,23 +797,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,39 +818,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -868,124 +864,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="str">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1949</v>
       </c>
@@ -993,7 +985,7 @@
         <v>291.10000000000002</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>5.0250000000000004</v>
@@ -1017,13 +1009,13 @@
         <v>254.511</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13">
         <v>254.511</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1950</v>
       </c>
@@ -1031,7 +1023,7 @@
         <v>329.14100000000002</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>4.9459999999999997</v>
@@ -1055,13 +1047,13 @@
         <v>291.44299999999998</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14">
         <v>291.44299999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1951</v>
       </c>
@@ -1069,7 +1061,7 @@
         <v>370.673</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>4.6260000000000003</v>
@@ -1093,13 +1085,13 @@
         <v>330.28500000000003</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15">
         <v>330.28500000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1952</v>
       </c>
@@ -1107,7 +1099,7 @@
         <v>399.22399999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>4.6059999999999999</v>
@@ -1131,13 +1123,13 @@
         <v>356.16399999999999</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16">
         <v>356.16399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1953</v>
       </c>
@@ -1145,7 +1137,7 @@
         <v>442.66500000000002</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>4.3840000000000003</v>
@@ -1169,13 +1161,13 @@
         <v>396.21699999999998</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17">
         <v>396.21699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1954</v>
       </c>
@@ -1183,7 +1175,7 @@
         <v>471.68599999999998</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>4.5709999999999997</v>
@@ -1207,13 +1199,13 @@
         <v>424.16399999999999</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18">
         <v>424.16399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1955</v>
       </c>
@@ -1221,7 +1213,7 @@
         <v>547.03800000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>3.2610000000000001</v>
@@ -1245,13 +1237,13 @@
         <v>496.74799999999999</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L19">
         <v>496.74799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1956</v>
       </c>
@@ -1259,7 +1251,7 @@
         <v>600.66800000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>3.2080000000000002</v>
@@ -1283,13 +1275,13 @@
         <v>546.28</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L20">
         <v>546.28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1957</v>
       </c>
@@ -1297,7 +1289,7 @@
         <v>631.51700000000005</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>3.125</v>
@@ -1321,13 +1313,13 @@
         <v>575.82000000000005</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21">
         <v>575.82000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1958</v>
       </c>
@@ -1335,7 +1327,7 @@
         <v>645.09799999999996</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>3.3519999999999999</v>
@@ -1359,13 +1351,13 @@
         <v>587.86300000000006</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22">
         <v>587.86300000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1959</v>
       </c>
@@ -1373,7 +1365,7 @@
         <v>710.00599999999997</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>3.3730000000000002</v>
@@ -1397,13 +1389,13 @@
         <v>646.88800000000003</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L23">
         <v>646.88800000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1960</v>
       </c>
@@ -1411,7 +1403,7 @@
         <v>755.54899999999998</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>3.6070000000000002</v>
@@ -1435,13 +1427,13 @@
         <v>688.07500000000005</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L24">
         <v>688.07500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1961</v>
       </c>
@@ -1449,7 +1441,7 @@
         <v>793.76</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>3.3650000000000002</v>
@@ -1473,13 +1465,13 @@
         <v>721.95</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L25">
         <v>721.95</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1962</v>
       </c>
@@ -1487,7 +1479,7 @@
         <v>854.53499999999997</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>3.4089999999999998</v>
@@ -1511,13 +1503,13 @@
         <v>777.6</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L26">
         <v>777.6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1963</v>
       </c>
@@ -1525,7 +1517,7 @@
         <v>916.79300000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>3.2349999999999999</v>
@@ -1549,13 +1541,13 @@
         <v>832.61300000000006</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L27">
         <v>832.61300000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1964</v>
       </c>
@@ -1563,7 +1555,7 @@
         <v>983.99</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>3.2280000000000002</v>
@@ -1587,13 +1579,13 @@
         <v>896.05899999999997</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28">
         <v>896.05899999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1965</v>
       </c>
@@ -1601,7 +1593,7 @@
         <v>1055.252</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>3.1339999999999999</v>
@@ -1625,13 +1617,13 @@
         <v>953.78899999999999</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L29">
         <v>953.78899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1966</v>
       </c>
@@ -1639,7 +1631,7 @@
         <v>1144.3499999999999</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>3.1819999999999999</v>
@@ -1663,13 +1655,13 @@
         <v>1035.145</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30">
         <v>1035.145</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1967</v>
       </c>
@@ -1677,7 +1669,7 @@
         <v>1214.365</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>3.431</v>
@@ -1701,13 +1693,13 @@
         <v>1099.2170000000001</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <v>1099.2170000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1968</v>
       </c>
@@ -1715,7 +1707,7 @@
         <v>1329.443</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>3.383</v>
@@ -1739,13 +1731,13 @@
         <v>1202.8710000000001</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L32">
         <v>1202.8710000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1969</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>1442.182</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>3.2759999999999998</v>
@@ -1777,13 +1769,13 @@
         <v>1313.8330000000001</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33">
         <v>1313.8330000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1970</v>
       </c>
@@ -1791,7 +1783,7 @@
         <v>1531.8679999999999</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>3.2440000000000002</v>
@@ -1815,13 +1807,13 @@
         <v>1392.3</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34">
         <v>1392.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1971</v>
       </c>
@@ -1829,7 +1821,7 @@
         <v>1612.633</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>3.2210000000000001</v>
@@ -1853,13 +1845,13 @@
         <v>1469.54</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L35">
         <v>1469.54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1972</v>
       </c>
@@ -1867,7 +1859,7 @@
         <v>1749.662</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>3.3159999999999998</v>
@@ -1891,13 +1883,13 @@
         <v>1595.1610000000001</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36">
         <v>1595.1610000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1973</v>
       </c>
@@ -1905,7 +1897,7 @@
         <v>1860.71</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>3.347</v>
@@ -1929,13 +1921,13 @@
         <v>1712.9090000000001</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37">
         <v>1712.9090000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1974</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>1867.14</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>3.18</v>
@@ -1967,13 +1959,13 @@
         <v>1705.924</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L38">
         <v>1705.924</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1975</v>
       </c>
@@ -1981,7 +1973,7 @@
         <v>1917.6489999999999</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>3.1059999999999999</v>
@@ -2005,13 +1997,13 @@
         <v>1747.0909999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L39">
         <v>1747.0909999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1976</v>
       </c>
@@ -2019,7 +2011,7 @@
         <v>2037.6959999999999</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>3.2170000000000001</v>
@@ -2043,13 +2035,13 @@
         <v>1855.2460000000001</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L40">
         <v>1855.2460000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1977</v>
       </c>
@@ -2057,7 +2049,7 @@
         <v>2124.3229999999999</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>3.1240000000000001</v>
@@ -2081,13 +2073,13 @@
         <v>1948.3610000000001</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L41">
         <v>1948.3610000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1978</v>
       </c>
@@ -2095,7 +2087,7 @@
         <v>2206.3310000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>3.0459999999999998</v>
@@ -2119,13 +2111,13 @@
         <v>2017.922</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L42">
         <v>2017.922</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1979</v>
       </c>
@@ -2133,7 +2125,7 @@
         <v>2247.3719999999998</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>3.2930000000000001</v>
@@ -2157,13 +2149,13 @@
         <v>2071.0990000000002</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L43">
         <v>2071.0990000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1980</v>
       </c>
@@ -2171,7 +2163,7 @@
         <v>2286.4389999999999</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>3.161</v>
@@ -2195,13 +2187,13 @@
         <v>2094.4490000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L44">
         <v>2094.4490000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1981</v>
       </c>
@@ -2209,7 +2201,7 @@
         <v>2294.8119999999999</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>3.161</v>
@@ -2233,13 +2225,13 @@
         <v>2147.1030000000001</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L45">
         <v>2147.1030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1982</v>
       </c>
@@ -2247,7 +2239,7 @@
         <v>2241.2109999999998</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>3.161</v>
@@ -2271,13 +2263,13 @@
         <v>2086.4409999999998</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L46">
         <v>2086.4409999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1983</v>
       </c>
@@ -2285,7 +2277,7 @@
         <v>2310.2849999999999</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>3.161</v>
@@ -2309,13 +2301,13 @@
         <v>2150.9549999999999</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L47">
         <v>2150.9549999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1984</v>
       </c>
@@ -2323,7 +2315,7 @@
         <v>2416.3040000000001</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>3.161</v>
@@ -2347,13 +2339,13 @@
         <v>2285.7959999999998</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L48">
         <v>2285.7959999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1985</v>
       </c>
@@ -2361,7 +2353,7 @@
         <v>2469.8409999999999</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49">
         <v>3.161</v>
@@ -2385,13 +2377,13 @@
         <v>2323.9740000000002</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L49">
         <v>2323.9740000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1986</v>
       </c>
@@ -2399,7 +2391,7 @@
         <v>2487.31</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>3.161</v>
@@ -2423,13 +2415,13 @@
         <v>2368.7530000000002</v>
       </c>
       <c r="K50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L50">
         <v>2368.7530000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1987</v>
       </c>
@@ -2437,7 +2429,7 @@
         <v>2572.127</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>3.161</v>
@@ -2461,13 +2453,13 @@
         <v>2457.2719999999999</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L51">
         <v>2457.2719999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1988</v>
       </c>
@@ -2475,7 +2467,7 @@
         <v>2704.25</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>3.161</v>
@@ -2499,13 +2491,13 @@
         <v>2578.0619999999999</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L52">
         <v>2578.0619999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1989</v>
       </c>
@@ -2543,7 +2535,7 @@
         <v>2755.6350000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1990</v>
       </c>
@@ -2581,7 +2573,7 @@
         <v>2837.0839999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1991</v>
       </c>
@@ -2619,7 +2611,7 @@
         <v>2886.06</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1992</v>
       </c>
@@ -2657,7 +2649,7 @@
         <v>2897.2069999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1993</v>
       </c>
@@ -2695,7 +2687,7 @@
         <v>3000.7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>1994</v>
       </c>
@@ -2733,7 +2725,7 @@
         <v>3080.8879999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1995</v>
       </c>
@@ -2771,7 +2763,7 @@
         <v>3163.9630000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1996</v>
       </c>
@@ -2809,7 +2801,7 @@
         <v>3253.7649999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1997</v>
       </c>
@@ -2847,7 +2839,7 @@
         <v>3301.8490000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>1998</v>
       </c>
@@ -2885,7 +2877,7 @@
         <v>3425.0970000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1999</v>
       </c>
@@ -2923,7 +2915,7 @@
         <v>3483.7159999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2000</v>
       </c>
@@ -2961,7 +2953,7 @@
         <v>3592.357</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2001</v>
       </c>
@@ -2999,7 +2991,7 @@
         <v>3557.107</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2002</v>
       </c>
@@ -3037,7 +3029,7 @@
         <v>3631.65</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2003</v>
       </c>
@@ -3075,7 +3067,7 @@
         <v>3662.029</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2004</v>
       </c>
@@ -3113,7 +3105,7 @@
         <v>3715.9490000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2005</v>
       </c>
@@ -3151,7 +3143,7 @@
         <v>3810.9839999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2006</v>
       </c>
@@ -3189,7 +3181,7 @@
         <v>3816.8449999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>2007</v>
       </c>
@@ -3227,7 +3219,7 @@
         <v>3890.2310000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>2008</v>
       </c>
@@ -3265,7 +3257,7 @@
         <v>3866.1610000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2009</v>
       </c>
@@ -3303,7 +3295,7 @@
         <v>3723.7330000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>2010</v>
       </c>
@@ -3341,7 +3333,7 @@
         <v>3886.752</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2011</v>
       </c>
@@ -3379,7 +3371,7 @@
         <v>3882.6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>2012</v>
       </c>
@@ -3417,7 +3409,7 @@
         <v>3832.306</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>2013</v>
       </c>
@@ -3455,7 +3447,7 @@
         <v>3868.33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2014</v>
       </c>
@@ -3493,7 +3485,7 @@
         <v>3903.2739999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>2015</v>
       </c>
@@ -3531,7 +3523,7 @@
         <v>3900.16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>2016</v>
       </c>
@@ -3557,19 +3549,19 @@
         <v>66.501999999999995</v>
       </c>
       <c r="I80">
-        <v>240.87100000000001</v>
+        <v>240.87899999999999</v>
       </c>
       <c r="J80">
         <v>3762.462</v>
       </c>
       <c r="K80">
-        <v>139.84399999999999</v>
+        <v>139.83699999999999</v>
       </c>
       <c r="L80">
-        <v>3902.306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3902.2979999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>2017</v>
       </c>
@@ -3595,24 +3587,24 @@
         <v>56.314</v>
       </c>
       <c r="I81">
-        <v>226.114</v>
+        <v>226.26900000000001</v>
       </c>
       <c r="J81">
         <v>3723.3560000000002</v>
       </c>
       <c r="K81">
-        <v>141.114</v>
+        <v>140.959</v>
       </c>
       <c r="L81">
-        <v>3864.47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3864.3150000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>2018</v>
       </c>
       <c r="B82">
-        <v>4017.9659999999999</v>
+        <v>4018.1669999999999</v>
       </c>
       <c r="C82">
         <v>13.311999999999999</v>
@@ -3621,7 +3613,7 @@
         <v>146.798</v>
       </c>
       <c r="E82">
-        <v>4178.0770000000002</v>
+        <v>4178.277</v>
       </c>
       <c r="F82">
         <v>58.261000000000003</v>
@@ -3633,33 +3625,33 @@
         <v>44.456000000000003</v>
       </c>
       <c r="I82">
-        <v>219.23400000000001</v>
+        <v>219.64400000000001</v>
       </c>
       <c r="J82">
         <v>3859.1849999999999</v>
       </c>
       <c r="K82">
-        <v>144.114</v>
+        <v>143.904</v>
       </c>
       <c r="L82">
-        <v>4003.299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4003.0889999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>2019</v>
       </c>
       <c r="B83">
-        <v>3955.7809999999999</v>
+        <v>3965.6289999999999</v>
       </c>
       <c r="C83">
-        <v>13.624000000000001</v>
+        <v>13.689</v>
       </c>
       <c r="D83">
-        <v>148.64500000000001</v>
+        <v>148.53700000000001</v>
       </c>
       <c r="E83">
-        <v>4118.0510000000004</v>
+        <v>4127.8549999999996</v>
       </c>
       <c r="F83">
         <v>59.052</v>
@@ -3671,52 +3663,131 @@
         <v>39.043999999999997</v>
       </c>
       <c r="I83">
-        <v>261.5</v>
+        <v>212.47900000000001</v>
       </c>
       <c r="J83">
-        <v>3749.538</v>
+        <v>3811.15</v>
       </c>
       <c r="K83">
-        <v>146.05699999999999</v>
+        <v>143.27000000000001</v>
       </c>
       <c r="L83">
-        <v>3895.5949999999998</v>
+        <v>3954.4209999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B84">
+        <v>3851.0340000000001</v>
+      </c>
+      <c r="C84">
+        <v>13.045999999999999</v>
+      </c>
+      <c r="D84">
+        <v>143.05600000000001</v>
+      </c>
+      <c r="E84">
+        <v>4007.1350000000002</v>
+      </c>
+      <c r="F84">
+        <v>61.448999999999998</v>
+      </c>
+      <c r="G84">
+        <v>14.135</v>
+      </c>
+      <c r="H84">
+        <v>47.314</v>
+      </c>
+      <c r="I84">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="J84">
+        <v>3717.674</v>
+      </c>
+      <c r="K84">
+        <v>138.69</v>
+      </c>
+      <c r="L84">
+        <v>3856.364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B85">
+        <v>3962.7849999999999</v>
+      </c>
+      <c r="C85">
+        <v>13.148</v>
+      </c>
+      <c r="D85">
+        <v>139.607</v>
+      </c>
+      <c r="E85">
+        <v>4115.54</v>
+      </c>
+      <c r="F85">
+        <v>53.167000000000002</v>
+      </c>
+      <c r="G85">
+        <v>13.840999999999999</v>
+      </c>
+      <c r="H85">
+        <v>39.325000000000003</v>
+      </c>
+      <c r="I85">
+        <v>224.61</v>
+      </c>
+      <c r="J85">
+        <v>3794.5390000000002</v>
+      </c>
+      <c r="K85">
+        <v>135.71600000000001</v>
+      </c>
+      <c r="L85">
+        <v>3930.2550000000001</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm" xr:uid="{1F9F0B60-66F6-4414-A588-5F90C9C12287}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -3733,7 +3804,7 @@
         <v>6.6944071098814603E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -3750,7 +3821,7 @@
         <v>5.6301959775455837E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -3767,7 +3838,7 @@
         <v>6.69968403047973E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -3784,7 +3855,7 @@
         <v>6.1157289973365822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -3801,7 +3872,7 @@
         <v>6.9824806478379145E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -3818,7 +3889,7 @@
         <v>6.8991223394440859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -3835,7 +3906,7 @@
         <v>6.8135044422103247E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -3852,7 +3923,7 @@
         <v>7.4342197409809851E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -3869,7 +3940,7 @@
         <v>7.1973548372324628E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -3886,7 +3957,7 @@
         <v>6.8415000431776993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -3903,7 +3974,7 @@
         <v>6.6530543607796436E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -3920,7 +3991,7 @@
         <v>6.4533940396931652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -3937,7 +4008,7 @@
         <v>6.7531060123515632E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -3954,7 +4025,7 @@
         <v>6.5453036402503759E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -3971,7 +4042,7 @@
         <v>6.18602525829927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -3988,13 +4059,13 @@
         <v>6.2284686986993069E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
       <c r="B18" s="5">
         <f>'MER 7.1'!I80</f>
-        <v>240.87100000000001</v>
+        <v>240.87899999999999</v>
       </c>
       <c r="C18" s="5">
         <f>'MER 7.1'!B80</f>
@@ -4002,16 +4073,16 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" ref="D18:D21" si="2">B18/C18</f>
-        <v>6.1476826137713443E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6.1478867955155558E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
       <c r="B19" s="5">
         <f>'MER 7.1'!I81</f>
-        <v>226.114</v>
+        <v>226.26900000000001</v>
       </c>
       <c r="C19" s="5">
         <f>'MER 7.1'!B81</f>
@@ -4019,57 +4090,97 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>5.8315084670271959E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.8355059365000683E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
       <c r="B20" s="5">
         <f>'MER 7.1'!I82</f>
-        <v>219.23400000000001</v>
+        <v>219.64400000000001</v>
       </c>
       <c r="C20" s="5">
         <f>'MER 7.1'!B82</f>
-        <v>4017.9659999999999</v>
+        <v>4018.1669999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>5.456342836151426E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.466273552094774E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
       <c r="B21" s="5">
         <f>'MER 7.1'!I83</f>
-        <v>261.5</v>
+        <v>212.47900000000001</v>
       </c>
       <c r="C21" s="5">
         <f>'MER 7.1'!B83</f>
-        <v>3955.7809999999999</v>
+        <v>3965.6289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="2"/>
-        <v>6.6105782903553054E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11">
-        <f>AVERAGE(D2:D21)</f>
-        <v>6.5086831191752695E-2</v>
+        <v>5.3580150841140213E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="5">
+        <f>'MER 7.1'!I84</f>
+        <v>198.08500000000001</v>
+      </c>
+      <c r="C22" s="5">
+        <f>'MER 7.1'!B84</f>
+        <v>3851.0340000000001</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:D23" si="3">B22/C22</f>
+        <v>5.1436834886422714E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="5">
+        <f>'MER 7.1'!I85</f>
+        <v>224.61</v>
+      </c>
+      <c r="C23" s="5">
+        <f>'MER 7.1'!B85</f>
+        <v>3962.7849999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="3"/>
+        <v>5.667983501502101E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6">
+        <f>AVERAGE(D2:D23)</f>
+        <v>6.3521317515713147E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4086,19 +4197,19 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -4209,153 +4320,153 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
+    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="4">
-        <f>Calculations!D25</f>
-        <v>6.5086831191752695E-2</v>
+        <f>Calculations!D28</f>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="C2" s="4">
         <f>$B2</f>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AK2" si="0">$B2</f>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>6.5086831191752695E-2</v>
+        <v>6.3521317515713147E-2</v>
       </c>
     </row>
   </sheetData>
